--- a/tamil_biology/12th_Bio_Botany_Tamil_U02.xlsx
+++ b/tamil_biology/12th_Bio_Botany_Tamil_U02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\tvmani.github.io\tamil_biology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A36629E-5ABE-4FF2-AA7E-2563867B3E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D8660-F46A-45AA-926A-CB8361AEAF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,7 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
